--- a/PhanChiaModule.xlsx
+++ b/PhanChiaModule.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="10080"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="22980" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Hoàng Văn Huy</t>
   </si>
@@ -55,16 +60,27 @@
   </si>
   <si>
     <t>16,15,6,19,18,20</t>
+  </si>
+  <si>
+    <t>https://demo.xtemos.com/basel/home-shoes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,10 +143,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -138,8 +155,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -147,6 +166,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -195,7 +217,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,7 +252,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,21 +463,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="7.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" style="1" customWidth="1"/>
-    <col min="6" max="18" width="12.5546875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
+    <col min="6" max="18" width="12.5703125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -464,7 +486,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="2:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -473,7 +495,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="2:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -495,7 +517,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="2:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="3">
         <v>1</v>
@@ -517,7 +539,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="2:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="3">
         <v>2</v>
@@ -539,7 +561,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="2:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="3">
         <v>3</v>
@@ -561,7 +583,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="2:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="3">
         <v>4</v>
@@ -583,7 +605,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="2:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="3">
         <v>5</v>
@@ -605,7 +627,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="2:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -621,9 +643,11 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="2:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -637,7 +661,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="2:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -646,7 +670,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="2:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -655,7 +679,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="2:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -665,6 +689,9 @@
       <c r="H14" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -675,7 +702,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -687,7 +714,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PhanChiaModule.xlsx
+++ b/PhanChiaModule.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Hoàng Văn Huy</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>https://demo.xtemos.com/basel/home-shoes</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1cOTDCE7ntmQkSPM8ESbuqKRUHExKBzKvTVd95y-vo3A/edit#gid=0</t>
+  </si>
+  <si>
+    <t>link NhomE</t>
+  </si>
+  <si>
+    <t>link project</t>
   </si>
 </sst>
 </file>
@@ -463,13 +472,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
@@ -485,6 +495,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
@@ -494,6 +505,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
@@ -509,8 +521,8 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -531,8 +543,8 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -553,8 +565,8 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="4"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -575,8 +587,8 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -597,8 +609,8 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="4"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -619,8 +631,8 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -635,8 +647,8 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -644,7 +656,9 @@
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
@@ -653,8 +667,8 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -662,13 +676,18 @@
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
@@ -678,6 +697,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
@@ -687,10 +707,12 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C11" r:id="rId1"/>
+    <hyperlink ref="C12" r:id="rId2" location="gid=0" display="gid=0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
